--- a/Excel_Import_Export/Category-OKKO.xlsx
+++ b/Excel_Import_Export/Category-OKKO.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Codinglms-main\Excel_Import_Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8E32D-FE83-4B2F-B779-2EF4C3752836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="30960" yWindow="2160" windowWidth="21780" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablib Dataset" sheetId="1" r:id="rId4"/>
+    <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -19,18 +28,12 @@
     <t>category_name</t>
   </si>
   <si>
-    <t>subject__name</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>JDBC</t>
   </si>
   <si>
-    <t>Java Programming Language</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -77,33 +80,23 @@
   </si>
   <si>
     <t>Data Types, Variables, and Operators</t>
+  </si>
+  <si>
+    <t>subject__id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -142,51 +135,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -312,7 +355,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -404,7 +447,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -412,7 +455,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -430,7 +473,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -459,7 +502,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -484,7 +527,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -509,7 +552,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +577,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,7 +602,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +627,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +652,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -634,7 +677,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +702,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,9 +715,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -689,7 +738,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -697,7 +746,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -715,7 +764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +864,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +889,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +939,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +964,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +989,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +1002,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -969,7 +1024,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -987,7 +1042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1071,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1096,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1121,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1146,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1171,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1196,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1221,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,7 +1246,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1271,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,164 +1284,173 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7578" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.81640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>5</v>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="4">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>5</v>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>5</v>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>5</v>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>5</v>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>5</v>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s" s="4">
-        <v>5</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
